--- a/InputData/bldgs/BFoCSbQL/BAU Frac of Components Sold by Quality Lvl.xlsx
+++ b/InputData/bldgs/BFoCSbQL/BAU Frac of Components Sold by Quality Lvl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="78">
   <si>
     <t>Source:</t>
   </si>
@@ -25,9 +25,6 @@
     <t>U.S. Department of Energy</t>
   </si>
   <si>
-    <t>Buildings Energy Data Book</t>
-  </si>
-  <si>
     <t>lighting</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t>http://buildingsdatabook.eren.doe.gov/docs/xls_pdf/9.1.14.xlsx</t>
   </si>
   <si>
-    <t>See next tab for tables and links</t>
-  </si>
-  <si>
     <t>BFoCSbQL BAU Fraction of Components Sold by Quality Level</t>
   </si>
   <si>
@@ -241,18 +235,6 @@
     <t>For instance, cooling and ventilation is based on major system components (central AC, heat pumps), rather than fans.</t>
   </si>
   <si>
-    <t>As of June 22, 2015, the DOE Buildings Energy Data Book is offline.  However,</t>
-  </si>
-  <si>
-    <t>the data tables have been permanently archived by the Internet Archive and</t>
-  </si>
-  <si>
-    <t>"Wayback Machine" at https://archive.org/web/</t>
-  </si>
-  <si>
-    <t>can be accessed by pasting the URLs on the next page into the Archive's</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
@@ -263,6 +245,12 @@
   </si>
   <si>
     <t>components.</t>
+  </si>
+  <si>
+    <t>Buildings Energy Data Book (2011 edition)</t>
+  </si>
+  <si>
+    <t>See next tab for table numbers and links</t>
   </si>
 </sst>
 </file>
@@ -676,7 +664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -688,7 +676,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -701,57 +689,37 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -764,7 +732,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -778,55 +748,55 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2">
         <v>2197000</v>
@@ -835,15 +805,15 @@
         <v>0.61</v>
       </c>
       <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2">
         <v>192000</v>
@@ -852,15 +822,15 @@
         <v>0.52</v>
       </c>
       <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2">
         <v>123000</v>
@@ -869,16 +839,16 @@
         <v>0.61</v>
       </c>
       <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="8">
         <v>56000</v>
@@ -887,18 +857,18 @@
         <v>0.36</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="13">
         <v>3519000</v>
@@ -907,16 +877,16 @@
         <v>0.27</v>
       </c>
       <c r="E12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="13">
         <v>1652000</v>
@@ -925,16 +895,16 @@
         <v>0.46</v>
       </c>
       <c r="E13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="8">
         <v>128000</v>
@@ -943,18 +913,18 @@
         <v>0.47</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="8">
         <v>1658000</v>
@@ -963,18 +933,18 @@
         <v>0.2</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2">
         <f>5.6*10^6</f>
@@ -984,15 +954,15 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2">
         <f>9.4*10^6</f>
@@ -1002,15 +972,15 @@
         <v>0.5</v>
       </c>
       <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2">
         <f>8.2*10^6</f>
@@ -1020,18 +990,18 @@
         <v>0.64</v>
       </c>
       <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2">
         <v>317000</v>
@@ -1040,15 +1010,15 @@
         <v>0.72</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2">
         <v>14000</v>
@@ -1057,15 +1027,15 @@
         <v>0.35</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="2">
         <v>1454000</v>
@@ -1074,15 +1044,15 @@
         <v>0.43</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2">
         <v>38000</v>
@@ -1091,15 +1061,15 @@
         <v>0.74</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2">
         <v>111000</v>
@@ -1108,15 +1078,15 @@
         <v>0.63</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="2">
         <v>84000</v>
@@ -1125,15 +1095,15 @@
         <v>0.19</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="2">
         <v>37000</v>
@@ -1142,16 +1112,16 @@
         <v>0.63</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="8">
         <v>243000</v>
@@ -1160,18 +1130,18 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
         <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
       </c>
       <c r="C27" s="2">
         <v>42743000</v>
@@ -1180,15 +1150,15 @@
         <v>0.8</v>
       </c>
       <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="2">
         <v>28656</v>
@@ -1197,15 +1167,15 @@
         <v>0.68</v>
       </c>
       <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="2">
         <v>1684000</v>
@@ -1214,15 +1184,15 @@
         <v>0.67</v>
       </c>
       <c r="E29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="2">
         <v>32919000</v>
@@ -1231,15 +1201,15 @@
         <v>0.35</v>
       </c>
       <c r="E30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="2">
         <v>42674000</v>
@@ -1248,18 +1218,18 @@
         <v>0.34</v>
       </c>
       <c r="E31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="2">
         <f>69.5*10^6</f>
@@ -1269,15 +1239,15 @@
         <v>0.71</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="2">
         <f>28.2*10^6</f>
@@ -1287,15 +1257,15 @@
         <v>0.43</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="2">
         <f>7.8*10^6</f>
@@ -1305,15 +1275,15 @@
         <v>0.99</v>
       </c>
       <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="2">
         <f>3.7*10^6</f>
@@ -1323,15 +1293,15 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="2">
         <f>0.2*10^6</f>
@@ -1341,15 +1311,15 @@
         <v>0.79</v>
       </c>
       <c r="E36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="2">
         <f>0.7*10^6</f>
@@ -1359,15 +1329,15 @@
         <v>0.99</v>
       </c>
       <c r="E37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="2">
         <f>20.2*10^6</f>
@@ -1377,10 +1347,10 @@
         <v>0.99</v>
       </c>
       <c r="E38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1428,18 +1398,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>71</v>
-      </c>
       <c r="C1" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="11">
         <f>1-C2</f>
@@ -1452,7 +1422,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="11">
         <f t="shared" ref="B3:B7" si="0">1-C3</f>
@@ -1465,7 +1435,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" s="15">
         <f t="shared" si="0"/>
@@ -1478,7 +1448,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="11">
         <f t="shared" si="0"/>
@@ -1491,7 +1461,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="11">
         <f t="shared" si="0"/>
@@ -1504,7 +1474,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="11">
         <f t="shared" si="0"/>
@@ -1542,18 +1512,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>71</v>
-      </c>
       <c r="C1" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="11">
         <f>1-C2</f>
@@ -1566,7 +1536,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="11">
         <f t="shared" ref="B3:B7" si="0">1-C3</f>
@@ -1579,7 +1549,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" s="15">
         <f t="shared" si="0"/>
@@ -1592,7 +1562,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="11">
         <f t="shared" si="0"/>
@@ -1605,7 +1575,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="11">
         <f t="shared" si="0"/>
@@ -1618,7 +1588,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="11">
         <f t="shared" si="0"/>
